--- a/ComcastCRMGUIFramework/testData/Org.xlsx
+++ b/ComcastCRMGUIFramework/testData/Org.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="7716"/>
   </bookViews>
   <sheets>
     <sheet name="productOrg" sheetId="1" r:id="rId1"/>
     <sheet name="productContact" sheetId="2" r:id="rId2"/>
     <sheet name="productOportunity" sheetId="3" r:id="rId3"/>
-    <sheet name="Product" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Product" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K25"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t>TC_ID</t>
   </si>
@@ -183,19 +185,22 @@
   </si>
   <si>
     <t>Apple iPhone 15 Plus (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>TC_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,152 +208,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,194 +222,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -556,312 +231,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1119,29 +508,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="25.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="19.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="16.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="12.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="18.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1325,29 +715,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="31.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="19.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1442,7 +831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1472,27 +861,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="17.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="15.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="16.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="17.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="17.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1537,23 +925,277 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="31.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1590,6 +1232,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>